--- a/data/trans_orig/P1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18810</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10832</v>
+        <v>11266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30335</v>
+        <v>30214</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03807129248260336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02192529213251807</v>
+        <v>0.02280295564161458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06139885020040776</v>
+        <v>0.06115323989310829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3788</v>
+        <v>4646</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15702</v>
+        <v>15841</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0180543896628583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008102769358799911</v>
+        <v>0.009938322951543241</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03358809299460216</v>
+        <v>0.03388459151683444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>27250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17635</v>
+        <v>17139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40026</v>
+        <v>39990</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02833944814275129</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01834022816452928</v>
+        <v>0.01782398099751507</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04162656476300637</v>
+        <v>0.04158942271343102</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>475254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463729</v>
+        <v>463850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483232</v>
+        <v>482798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9619287075173967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9386011497995923</v>
+        <v>0.9388467601068915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9780747078674819</v>
+        <v>0.9771970443583854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>480</v>
@@ -836,19 +836,19 @@
         <v>459049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>451787</v>
+        <v>451648</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463701</v>
+        <v>462843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9819456103371417</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.966411907005398</v>
+        <v>0.9661154084831656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9918972306412002</v>
+        <v>0.9900616770484568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>962</v>
@@ -857,19 +857,19 @@
         <v>934303</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>921527</v>
+        <v>921563</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>943918</v>
+        <v>944414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9716605518572488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9583734352369933</v>
+        <v>0.9584105772865688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9816597718354704</v>
+        <v>0.9821760190024849</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>51401</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39455</v>
+        <v>37751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67390</v>
+        <v>67495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06988731588273944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05364442006800627</v>
+        <v>0.05132827028059329</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09162552430386636</v>
+        <v>0.09176906868574475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -982,19 +982,19 @@
         <v>24300</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16193</v>
+        <v>16545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35135</v>
+        <v>35532</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03884878170623884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02588906327042407</v>
+        <v>0.02645107902798384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05617096450085053</v>
+        <v>0.056806669636491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -1003,19 +1003,19 @@
         <v>75701</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57251</v>
+        <v>59816</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94126</v>
+        <v>94183</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05562231813958516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04206618440765104</v>
+        <v>0.04395080516441595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06916060596429047</v>
+        <v>0.06920256645642169</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>684088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>668099</v>
+        <v>667994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>696034</v>
+        <v>697738</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9301126841172606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9083744756961337</v>
+        <v>0.9082309313142554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9463555799319938</v>
+        <v>0.9486717297194073</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>568</v>
@@ -1053,19 +1053,19 @@
         <v>601194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>590359</v>
+        <v>589962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609301</v>
+        <v>608949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9611512182937612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9438290354991494</v>
+        <v>0.9431933303635091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9741109367295759</v>
+        <v>0.9735489209720162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1223</v>
@@ -1074,19 +1074,19 @@
         <v>1285281</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1266856</v>
+        <v>1266799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1303731</v>
+        <v>1301166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9443776818604148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9308393940357097</v>
+        <v>0.9307974335435766</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.957933815592349</v>
+        <v>0.9560491948355833</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>39712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27838</v>
+        <v>28736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53331</v>
+        <v>53375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06217908072097469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04358790882752455</v>
+        <v>0.04499412934814449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0835034457268124</v>
+        <v>0.08357219808927725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1199,19 +1199,19 @@
         <v>14415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8007</v>
+        <v>8068</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23593</v>
+        <v>23569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02089884913430106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01160870675500644</v>
+        <v>0.01169721501875821</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03420584422386144</v>
+        <v>0.0341701371282318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1220,19 +1220,19 @@
         <v>54127</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41543</v>
+        <v>40159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69035</v>
+        <v>70488</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0407453643453683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03127265302244838</v>
+        <v>0.03023047361589762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05196769203298311</v>
+        <v>0.05306187220796298</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>598956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>585337</v>
+        <v>585293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610830</v>
+        <v>609932</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9378209192790253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9164965542731874</v>
+        <v>0.9164278019107227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9564120911724754</v>
+        <v>0.9550058706518558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -1270,19 +1270,19 @@
         <v>675329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>666151</v>
+        <v>666175</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681737</v>
+        <v>681676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9791011508656989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9657941557761384</v>
+        <v>0.9658298628717676</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9883912932449935</v>
+        <v>0.9883027849812417</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -1291,19 +1291,19 @@
         <v>1274285</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1259377</v>
+        <v>1257924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1286869</v>
+        <v>1288253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9592546356546318</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.948032307967017</v>
+        <v>0.9469381277920373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9687273469775516</v>
+        <v>0.9697695263841024</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>31677</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22036</v>
+        <v>21566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45971</v>
+        <v>45344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06101749369421768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04244700425557853</v>
+        <v>0.04154184310369968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0885503056558708</v>
+        <v>0.08734265100705429</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1416,19 +1416,19 @@
         <v>24754</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15935</v>
+        <v>16542</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35969</v>
+        <v>37599</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04800679651906596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03090303062498121</v>
+        <v>0.03208035859568064</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06975601735518344</v>
+        <v>0.0729173021132298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -1437,19 +1437,19 @@
         <v>56431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41591</v>
+        <v>41984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73830</v>
+        <v>74209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05453418011994167</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04019289707091037</v>
+        <v>0.04057269144738518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07134787529955267</v>
+        <v>0.07171390324902992</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>487470</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473176</v>
+        <v>473803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497111</v>
+        <v>497581</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9389825063057823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9114496943441293</v>
+        <v>0.9126573489929464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9575529957444213</v>
+        <v>0.9584581568963003</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>479</v>
@@ -1487,19 +1487,19 @@
         <v>490888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479673</v>
+        <v>478043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>499707</v>
+        <v>499100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9519932034809341</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9302439826448166</v>
+        <v>0.9270826978867702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9690969693750188</v>
+        <v>0.9679196414043194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>935</v>
@@ -1508,19 +1508,19 @@
         <v>978358</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>960959</v>
+        <v>960580</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>993198</v>
+        <v>992805</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9454658198800583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9286521247004472</v>
+        <v>0.9282860967509701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9598071029290897</v>
+        <v>0.9594273085526148</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>26750</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18417</v>
+        <v>16830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39115</v>
+        <v>37775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06917270529689586</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04762455310018422</v>
+        <v>0.04352206259573229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1011483237468197</v>
+        <v>0.09768356801544167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1633,19 +1633,19 @@
         <v>35259</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25362</v>
+        <v>24347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48123</v>
+        <v>47882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08727869697628599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06277895202471673</v>
+        <v>0.06026573343758897</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1191196440356146</v>
+        <v>0.1185244909884618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -1654,19 +1654,19 @@
         <v>62009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48259</v>
+        <v>46784</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77574</v>
+        <v>78746</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07842350034713648</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06103316777517682</v>
+        <v>0.05916829291003773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09810796067480974</v>
+        <v>0.09959035759642539</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>359960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>347595</v>
+        <v>348935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>368293</v>
+        <v>369880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9308272947031041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8988516762531802</v>
+        <v>0.9023164319845582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9523754468998158</v>
+        <v>0.9564779374042677</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>361</v>
@@ -1704,19 +1704,19 @@
         <v>368727</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>355863</v>
+        <v>356104</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>378624</v>
+        <v>379639</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.912721303023714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8808803559643854</v>
+        <v>0.8814755090115379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9372210479752833</v>
+        <v>0.9397342665624109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>727</v>
@@ -1725,19 +1725,19 @@
         <v>728687</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>713122</v>
+        <v>711950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>742437</v>
+        <v>743912</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9215764996528635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9018920393251902</v>
+        <v>0.9004096424035747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9389668322248232</v>
+        <v>0.9408317070899624</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>27239</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17838</v>
+        <v>18161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38912</v>
+        <v>39185</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09309805118171974</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06096565439146232</v>
+        <v>0.06207064126991409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1329940819577285</v>
+        <v>0.1339286617004003</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -1850,19 +1850,19 @@
         <v>74865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61308</v>
+        <v>60369</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88387</v>
+        <v>89600</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2183067081603336</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1787762638512509</v>
+        <v>0.1760370768359055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2577371268672115</v>
+        <v>0.2612737889871169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -1871,19 +1871,19 @@
         <v>102104</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85654</v>
+        <v>84313</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122015</v>
+        <v>120001</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1606624208221984</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1347776901719165</v>
+        <v>0.132669137811534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1919929874963923</v>
+        <v>0.1888239303552877</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>265344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253671</v>
+        <v>253398</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>274745</v>
+        <v>274422</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9069019488182802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8670059180422716</v>
+        <v>0.8660713382995997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9390343456085377</v>
+        <v>0.937929358730086</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>290</v>
@@ -1921,19 +1921,19 @@
         <v>268069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254547</v>
+        <v>253334</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>281626</v>
+        <v>282565</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7816932918396664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.742262873132789</v>
+        <v>0.7387262110128834</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8212237361487496</v>
+        <v>0.8239629231640947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -1942,19 +1942,19 @@
         <v>533413</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513502</v>
+        <v>515516</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549863</v>
+        <v>551204</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8393375791778016</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.808007012503608</v>
+        <v>0.8111760696447126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8652223098280836</v>
+        <v>0.8673308621884661</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>43060</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33074</v>
+        <v>32458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56662</v>
+        <v>55267</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2051634310924355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1575821801953181</v>
+        <v>0.1546488678939922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2699695132893216</v>
+        <v>0.2633235156837705</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -2067,19 +2067,19 @@
         <v>114099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>95033</v>
+        <v>97472</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131801</v>
+        <v>135280</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3417071383810735</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2846077347184847</v>
+        <v>0.2919134588171217</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3947219645182258</v>
+        <v>0.4051411302655085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>144</v>
@@ -2088,19 +2088,19 @@
         <v>157159</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135644</v>
+        <v>136615</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>178354</v>
+        <v>179380</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2890063693527533</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2494409051543518</v>
+        <v>0.2512266712319594</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3279828381560514</v>
+        <v>0.3298696189667991</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>166823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>153221</v>
+        <v>154616</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>176809</v>
+        <v>177425</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7948365689075645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7300304867106784</v>
+        <v>0.7366764843162295</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8424178198046819</v>
+        <v>0.8453511321060078</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>191</v>
@@ -2138,19 +2138,19 @@
         <v>219809</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202107</v>
+        <v>198628</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>238875</v>
+        <v>236436</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6582928616189265</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6052780354817742</v>
+        <v>0.5948588697344916</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7153922652815153</v>
+        <v>0.7080865411828784</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>366</v>
@@ -2159,19 +2159,19 @@
         <v>386632</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>365437</v>
+        <v>364411</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>408147</v>
+        <v>407176</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7109936306472467</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6720171618439486</v>
+        <v>0.6701303810332008</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7505590948456482</v>
+        <v>0.7487733287680405</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>238649</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07283554118712565</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>284</v>
@@ -2284,19 +2284,19 @@
         <v>296132</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08763383293384923</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>511</v>
@@ -2305,19 +2305,19 @@
         <v>534781</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08034880686593823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3037894</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3004638</v>
+        <v>3006125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3068031</v>
+        <v>3067103</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9271644588128743</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9170147026015779</v>
+        <v>0.9174685905450155</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9363622418561413</v>
+        <v>0.9360790898111833</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3013</v>
@@ -2355,19 +2355,19 @@
         <v>3083065</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3048445</v>
+        <v>3046006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3116016</v>
+        <v>3116104</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9123661670661508</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.902121081271304</v>
+        <v>0.9013994626732633</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9221172523224542</v>
+        <v>0.922143344366562</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6000</v>
@@ -2376,19 +2376,19 @@
         <v>6120960</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6077082</v>
+        <v>6074873</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6161683</v>
+        <v>6165061</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9196511931340617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9130586306247367</v>
+        <v>0.9127268012358586</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9257696228984048</v>
+        <v>0.9262771129393904</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>6964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3235</v>
+        <v>2876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14886</v>
+        <v>14215</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01533527409884415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007123847516017402</v>
+        <v>0.006333709906800432</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03277697714583604</v>
+        <v>0.03130080272867383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2744,19 +2744,19 @@
         <v>16625</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9502</v>
+        <v>9620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27928</v>
+        <v>26672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03864240433865583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02208668165782999</v>
+        <v>0.02235925486672981</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06491305263226371</v>
+        <v>0.06199533711305848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2765,19 +2765,19 @@
         <v>23590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14878</v>
+        <v>14897</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35478</v>
+        <v>35381</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02667368962766503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01682291194208124</v>
+        <v>0.0168447165553567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.040115880674821</v>
+        <v>0.04000722492907755</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>447182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439260</v>
+        <v>439931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450911</v>
+        <v>451270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9846647259011558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9672230228541639</v>
+        <v>0.9686991972713263</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928761524839826</v>
+        <v>0.9936662900931996</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>407</v>
@@ -2815,19 +2815,19 @@
         <v>413605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402302</v>
+        <v>403558</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>420728</v>
+        <v>420610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9613575956613442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9350869473677363</v>
+        <v>0.9380046628869415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.97791331834217</v>
+        <v>0.97764074513327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>846</v>
@@ -2836,19 +2836,19 @@
         <v>860786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>848898</v>
+        <v>848995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>869498</v>
+        <v>869479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.973326310372335</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9598841193251785</v>
+        <v>0.9599927750709221</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9831770880579187</v>
+        <v>0.9831552834446432</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>68399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53268</v>
+        <v>53135</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85919</v>
+        <v>85221</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09954860341314779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07752687257797226</v>
+        <v>0.07733377602924099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1250483775524794</v>
+        <v>0.1240317500899308</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2961,19 +2961,19 @@
         <v>28125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18748</v>
+        <v>19541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40289</v>
+        <v>42241</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04608782758171839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03072189771965475</v>
+        <v>0.03202042397459002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06602072423776455</v>
+        <v>0.06921845207143641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -2982,19 +2982,19 @@
         <v>96524</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79403</v>
+        <v>78589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121246</v>
+        <v>119991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07440125111511843</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06120436069635018</v>
+        <v>0.06057693260557771</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09345733563467068</v>
+        <v>0.09249012716917286</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>618688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>601168</v>
+        <v>601866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>633819</v>
+        <v>633952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9004513965868522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8749516224475206</v>
+        <v>0.8759682499100694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9224731274220277</v>
+        <v>0.9226662239707593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>545</v>
@@ -3032,19 +3032,19 @@
         <v>582130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>569966</v>
+        <v>568014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>591507</v>
+        <v>590714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9539121724182816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9339792757622356</v>
+        <v>0.9307815479285632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9692781022803453</v>
+        <v>0.96797957602541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1148</v>
@@ -3053,19 +3053,19 @@
         <v>1200818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1176096</v>
+        <v>1177351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1217939</v>
+        <v>1218753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9255987488848816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9065426643653295</v>
+        <v>0.9075098728308272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.93879563930365</v>
+        <v>0.9394230673944223</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>31792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21101</v>
+        <v>22411</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43953</v>
+        <v>44962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04662576876432539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0309453877622609</v>
+        <v>0.03286718150345106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06446017891212921</v>
+        <v>0.06594010793269661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3178,19 +3178,19 @@
         <v>11422</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5925</v>
+        <v>5815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20632</v>
+        <v>20692</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01606758456122166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008335044293165634</v>
+        <v>0.008180217098026878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02902381125344315</v>
+        <v>0.0291094939460992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -3199,19 +3199,19 @@
         <v>43214</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32022</v>
+        <v>30358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59127</v>
+        <v>56960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03102866770571279</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02299284850120178</v>
+        <v>0.02179806883728728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04245460933624473</v>
+        <v>0.04089895329923202</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>650071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637910</v>
+        <v>636901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660762</v>
+        <v>659452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9533742312356746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9355398210878714</v>
+        <v>0.9340598920673039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9690546122377391</v>
+        <v>0.9671328184965492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -3249,19 +3249,19 @@
         <v>699428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690218</v>
+        <v>690158</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704925</v>
+        <v>705035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9839324154387783</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9709761887465567</v>
+        <v>0.9708905060539008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916649557068343</v>
+        <v>0.9918197829019731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1277</v>
@@ -3270,19 +3270,19 @@
         <v>1349498</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1333585</v>
+        <v>1335752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1360690</v>
+        <v>1362354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9689713322942872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9575453906637554</v>
+        <v>0.959101046700768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9770071514987984</v>
+        <v>0.9782019311627125</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>53065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39092</v>
+        <v>39062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70423</v>
+        <v>71268</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08633904407371887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06360444192536842</v>
+        <v>0.06355424581246148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1145807555021874</v>
+        <v>0.1159545149919285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -3395,19 +3395,19 @@
         <v>29327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19577</v>
+        <v>19375</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42500</v>
+        <v>42341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04759291437789085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.031769991468522</v>
+        <v>0.03144242179935505</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0689717720673073</v>
+        <v>0.06871375917213879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -3416,19 +3416,19 @@
         <v>82392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67422</v>
+        <v>63592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106977</v>
+        <v>103282</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0669410718895402</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05477837337578277</v>
+        <v>0.05166619893301103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08691530709707147</v>
+        <v>0.08391305636966263</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>561552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>544194</v>
+        <v>543349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>575525</v>
+        <v>575555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9136609559262812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8854192444978126</v>
+        <v>0.8840454850080716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9363955580746316</v>
+        <v>0.9364457541875386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>513</v>
@@ -3466,19 +3466,19 @@
         <v>586872</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>573699</v>
+        <v>573858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>596622</v>
+        <v>596824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9524070856221092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9310282279326925</v>
+        <v>0.9312862408278614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.968230008531478</v>
+        <v>0.9685575782006449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1015</v>
@@ -3487,19 +3487,19 @@
         <v>1148424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1123839</v>
+        <v>1127534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1163394</v>
+        <v>1167224</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9330589281104598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9130846929029287</v>
+        <v>0.9160869436303375</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9452216266242173</v>
+        <v>0.9483338010669891</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>30277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20798</v>
+        <v>20694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42522</v>
+        <v>43909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07050421437167223</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04843059299465505</v>
+        <v>0.04818906469662599</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09901897715833219</v>
+        <v>0.1022502926666039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3612,19 +3612,19 @@
         <v>38662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27086</v>
+        <v>27994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51444</v>
+        <v>53494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.086337733377821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06048766523696968</v>
+        <v>0.06251543157542619</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1148815674008767</v>
+        <v>0.1194594196619452</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -3633,19 +3633,19 @@
         <v>68939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53565</v>
+        <v>53981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87105</v>
+        <v>86938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07858676581278318</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06106155893358251</v>
+        <v>0.06153555786759081</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09929590146960594</v>
+        <v>0.09910484405220243</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>399152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386907</v>
+        <v>385520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>408631</v>
+        <v>408735</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9294957856283278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.900981022841668</v>
+        <v>0.8977497073333961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9515694070053451</v>
+        <v>0.9518109353033741</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>371</v>
@@ -3683,19 +3683,19 @@
         <v>409138</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>396356</v>
+        <v>394306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>420714</v>
+        <v>419806</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.913662266622179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8851184325991233</v>
+        <v>0.8805405803380538</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9395123347630298</v>
+        <v>0.9374845684245738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>737</v>
@@ -3704,19 +3704,19 @@
         <v>808290</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>790124</v>
+        <v>790291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>823664</v>
+        <v>823248</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9214132341872168</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.900704098530394</v>
+        <v>0.9008951559477976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9389384410664174</v>
+        <v>0.9384644421324092</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>38029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27810</v>
+        <v>24997</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52076</v>
+        <v>51817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1227582279772691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08977048871620684</v>
+        <v>0.08068994074008071</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1681029836819572</v>
+        <v>0.1672676924355082</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -3829,19 +3829,19 @@
         <v>84576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68595</v>
+        <v>67135</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101607</v>
+        <v>101891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2389184046423911</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1937721191565755</v>
+        <v>0.1896487119494677</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2870278558443201</v>
+        <v>0.2878320729711014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -3850,19 +3850,19 @@
         <v>122605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103691</v>
+        <v>103946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145220</v>
+        <v>147506</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1847066185713604</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1562126625103906</v>
+        <v>0.1565963056030413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.218776027730458</v>
+        <v>0.2222212100215004</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>271757</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257710</v>
+        <v>257969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281976</v>
+        <v>284789</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8772417720227309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8318970163180428</v>
+        <v>0.8327323075644918</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9102295112837933</v>
+        <v>0.9193100592599193</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>262</v>
@@ -3900,19 +3900,19 @@
         <v>269420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252389</v>
+        <v>252105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>285401</v>
+        <v>286861</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.761081595357609</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7129721441556799</v>
+        <v>0.7121679270288985</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8062278808434248</v>
+        <v>0.8103512880505322</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -3921,19 +3921,19 @@
         <v>541177</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>518562</v>
+        <v>516276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>560091</v>
+        <v>559836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8152933814286396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.781223972269542</v>
+        <v>0.7777787899784996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8437873374896094</v>
+        <v>0.8434036943969587</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>56540</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44652</v>
+        <v>44058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70722</v>
+        <v>70664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2262947637005007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1787160551452405</v>
+        <v>0.1763357178297306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2830582693770342</v>
+        <v>0.28282587482687</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -4046,19 +4046,19 @@
         <v>145350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125499</v>
+        <v>124811</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>164412</v>
+        <v>165759</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3736700977072843</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3226368720563476</v>
+        <v>0.3208694222708643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4226751340813504</v>
+        <v>0.4261396528194505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -4067,19 +4067,19 @@
         <v>201890</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180329</v>
+        <v>175870</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>227355</v>
+        <v>227433</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3160305667495492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2822796402811243</v>
+        <v>0.2752995228674261</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3558932422559009</v>
+        <v>0.3560149304171858</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>193311</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>179129</v>
+        <v>179187</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>205199</v>
+        <v>205793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7737052362994993</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7169417306229658</v>
+        <v>0.7171741251731298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8212839448547594</v>
+        <v>0.8236642821702692</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>219</v>
@@ -4117,19 +4117,19 @@
         <v>243629</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>224567</v>
+        <v>223220</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>263480</v>
+        <v>264168</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6263299022927157</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5773248659186497</v>
+        <v>0.5738603471805496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6773631279436525</v>
+        <v>0.6791305777291361</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>389</v>
@@ -4138,19 +4138,19 @@
         <v>436940</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>411475</v>
+        <v>411397</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>458501</v>
+        <v>462960</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6839694332504508</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6441067577440991</v>
+        <v>0.6439850695828143</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7177203597188757</v>
+        <v>0.724700477132574</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>285066</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>251991</v>
+        <v>252779</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>317560</v>
+        <v>318182</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08318777420176404</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07353589179371658</v>
+        <v>0.07376566413983661</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09267017206440614</v>
+        <v>0.09285157762350343</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>324</v>
@@ -4263,19 +4263,19 @@
         <v>354087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>319051</v>
+        <v>317116</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>393407</v>
+        <v>394650</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09950985906560679</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08966359619544415</v>
+        <v>0.08911999714698692</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1105599777961754</v>
+        <v>0.110909527501871</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>584</v>
@@ -4284,19 +4284,19 @@
         <v>639153</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>592017</v>
+        <v>589481</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>690137</v>
+        <v>692958</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09150249025700991</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08475446706629924</v>
+        <v>0.08439132617938079</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09880143431022401</v>
+        <v>0.09920536069947122</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3141713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3109219</v>
+        <v>3108597</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3174788</v>
+        <v>3174000</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.916812225798236</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9073298279355939</v>
+        <v>0.9071484223764971</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9264641082062837</v>
+        <v>0.9262343358601636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2974</v>
@@ -4334,19 +4334,19 @@
         <v>3204222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3164902</v>
+        <v>3163659</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3239258</v>
+        <v>3241193</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9004901409343932</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8894400222038247</v>
+        <v>0.889090472498129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9103364038045558</v>
+        <v>0.9108800028530131</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5923</v>
@@ -4355,19 +4355,19 @@
         <v>6345935</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6294951</v>
+        <v>6292130</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6393071</v>
+        <v>6395607</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9084975097429902</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.901198565689776</v>
+        <v>0.9007946393005288</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9152455329337007</v>
+        <v>0.9156086738206192</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>30018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20043</v>
+        <v>20230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42823</v>
+        <v>44223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07156253479460868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04778290919138567</v>
+        <v>0.04822736222435246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1020910051012151</v>
+        <v>0.1054287889191397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -4723,19 +4723,19 @@
         <v>28940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19022</v>
+        <v>19522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40477</v>
+        <v>39874</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07312579372865761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04806383753811818</v>
+        <v>0.04932868208494443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1022788922137414</v>
+        <v>0.1007531412351848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -4744,19 +4744,19 @@
         <v>58958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43546</v>
+        <v>46057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73712</v>
+        <v>76569</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07232143308065897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05341577834403993</v>
+        <v>0.05649666431262349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0904204006211009</v>
+        <v>0.09392498866576628</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>389445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376640</v>
+        <v>375240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399420</v>
+        <v>399233</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9284374652053913</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8979089948987846</v>
+        <v>0.8945712110808607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9522170908086144</v>
+        <v>0.9517726377756476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>375</v>
@@ -4794,19 +4794,19 @@
         <v>366815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355278</v>
+        <v>355881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>376733</v>
+        <v>376233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9268742062713424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.897721107786259</v>
+        <v>0.8992468587648151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9519361624618818</v>
+        <v>0.9506713179150555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>742</v>
@@ -4815,19 +4815,19 @@
         <v>756260</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741506</v>
+        <v>738649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771672</v>
+        <v>769161</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.927678566919341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.909579599378899</v>
+        <v>0.9060750113342337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.94658422165596</v>
+        <v>0.9435033356873764</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>62551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48508</v>
+        <v>49860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77584</v>
+        <v>82054</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.10593034208609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0821476259134292</v>
+        <v>0.08443697268984937</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1313877482607653</v>
+        <v>0.1389582823188915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -4940,19 +4940,19 @@
         <v>41735</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30704</v>
+        <v>30691</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55116</v>
+        <v>53583</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07405884055146508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0544842891249251</v>
+        <v>0.05446032071885266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09780186321082925</v>
+        <v>0.09508199633634835</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -4961,19 +4961,19 @@
         <v>104287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87009</v>
+        <v>86592</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124857</v>
+        <v>125230</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09036677043797035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07539528988122661</v>
+        <v>0.07503343510153135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1081914525881298</v>
+        <v>0.1085146323809464</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>527945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>512912</v>
+        <v>508442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541988</v>
+        <v>540636</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8940696579139099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8686122517392347</v>
+        <v>0.8610417176811093</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9178523740865709</v>
+        <v>0.9155630273101509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>536</v>
@@ -5011,19 +5011,19 @@
         <v>521809</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>508428</v>
+        <v>509961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>532840</v>
+        <v>532853</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9259411594485349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9021981367891708</v>
+        <v>0.9049180036636517</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9455157108750749</v>
+        <v>0.9455396792811473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1043</v>
@@ -5032,19 +5032,19 @@
         <v>1049753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1029183</v>
+        <v>1028810</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1067031</v>
+        <v>1067448</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9096332295620296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8918085474118704</v>
+        <v>0.8914853676190537</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9246047101187734</v>
+        <v>0.9249665648984688</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>73183</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57610</v>
+        <v>57382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89578</v>
+        <v>90245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1093763151180142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08610137695309869</v>
+        <v>0.08576046885292002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1338790034819395</v>
+        <v>0.1348752203608921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -5157,19 +5157,19 @@
         <v>29449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19953</v>
+        <v>20993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41426</v>
+        <v>42161</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04452649902062017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03016840646766479</v>
+        <v>0.0317402895398509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06263466330240806</v>
+        <v>0.06374698728569121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -5178,19 +5178,19 @@
         <v>102633</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85291</v>
+        <v>84696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126480</v>
+        <v>124324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07713931580272669</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0641056466315144</v>
+        <v>0.0636581350153692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09506313973881438</v>
+        <v>0.09344270306437934</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>595914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>579519</v>
+        <v>578852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>611487</v>
+        <v>611715</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8906236848819858</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8661209965180603</v>
+        <v>0.8651247796391077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9138986230469012</v>
+        <v>0.91423953114708</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>635</v>
@@ -5228,19 +5228,19 @@
         <v>631937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>619960</v>
+        <v>619225</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>641433</v>
+        <v>640393</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9554735009793799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9373653366975919</v>
+        <v>0.9362530127143088</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9698315935323353</v>
+        <v>0.9682597104601491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1205</v>
@@ -5249,19 +5249,19 @@
         <v>1227850</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204003</v>
+        <v>1206159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1245192</v>
+        <v>1245787</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9228606841972733</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.904936860261186</v>
+        <v>0.9065572969356207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9358943533684856</v>
+        <v>0.9363418649846306</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>83424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66369</v>
+        <v>65732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103545</v>
+        <v>102396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1291299768109658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1027303036459957</v>
+        <v>0.1017450988069747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1602744947202576</v>
+        <v>0.1584965565658202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5374,19 +5374,19 @@
         <v>35537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24597</v>
+        <v>23791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47796</v>
+        <v>48927</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05475079281329414</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0378947356279265</v>
+        <v>0.03665283543330827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0736369479084632</v>
+        <v>0.07537979846897362</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -5395,19 +5395,19 @@
         <v>118962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98624</v>
+        <v>97440</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142371</v>
+        <v>143978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09185341722481391</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07614990749653287</v>
+        <v>0.07523569092097838</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1099283037436915</v>
+        <v>0.1111688540697587</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>562624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>542503</v>
+        <v>543652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>579679</v>
+        <v>580316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8708700231890342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8397255052797424</v>
+        <v>0.8415034434341797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8972696963540043</v>
+        <v>0.8982549011930253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>571</v>
@@ -5445,19 +5445,19 @@
         <v>613540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601281</v>
+        <v>600150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>624480</v>
+        <v>625286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9452492071867059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9263630520915371</v>
+        <v>0.9246202015310263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9621052643720737</v>
+        <v>0.9633471645666917</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1080</v>
@@ -5466,19 +5466,19 @@
         <v>1176163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1152754</v>
+        <v>1151147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1196501</v>
+        <v>1197685</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9081465827751861</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8900716962563086</v>
+        <v>0.8888311459302415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9238500925034674</v>
+        <v>0.9247643090790216</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>55422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42417</v>
+        <v>41458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72866</v>
+        <v>71481</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1159651627171558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08875281342063789</v>
+        <v>0.08674765526253821</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1524660144757614</v>
+        <v>0.1495667767556837</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -5591,19 +5591,19 @@
         <v>76106</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59885</v>
+        <v>59479</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94266</v>
+        <v>93165</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1531769944608239</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1205295131055361</v>
+        <v>0.1197127192020497</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1897271368629124</v>
+        <v>0.1875118339650108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -5612,19 +5612,19 @@
         <v>131528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110860</v>
+        <v>110030</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154082</v>
+        <v>152953</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1349324250929838</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.113729803811209</v>
+        <v>0.1128782605347191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1580708306883842</v>
+        <v>0.1569125930041001</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>422496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>405052</v>
+        <v>406437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>435501</v>
+        <v>436460</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8840348372828443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8475339855242384</v>
+        <v>0.8504332232443162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9112471865793618</v>
+        <v>0.9132523447374618</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -5662,19 +5662,19 @@
         <v>420743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>402583</v>
+        <v>403684</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>436964</v>
+        <v>437370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8468230055391761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8102728631370877</v>
+        <v>0.8124881660349892</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8794704868944642</v>
+        <v>0.8802872807979504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>743</v>
@@ -5683,19 +5683,19 @@
         <v>843239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>820685</v>
+        <v>821814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>863907</v>
+        <v>864737</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8650675749070162</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.841929169311616</v>
+        <v>0.8430874069959003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8862701961887911</v>
+        <v>0.8871217394652809</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>53598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40608</v>
+        <v>41157</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69961</v>
+        <v>68944</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1603158030151878</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1214594600717028</v>
+        <v>0.1231040292400266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2092560343527827</v>
+        <v>0.2062144554598116</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -5808,19 +5808,19 @@
         <v>94335</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77386</v>
+        <v>78225</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111504</v>
+        <v>111879</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2497195174690378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.204854554450241</v>
+        <v>0.2070741258623661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2951687736556983</v>
+        <v>0.2961636763379671</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -5829,19 +5829,19 @@
         <v>147933</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127293</v>
+        <v>124875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172449</v>
+        <v>169171</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2077441214543783</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1787591491842677</v>
+        <v>0.1753633517966572</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2421718731378014</v>
+        <v>0.2375685317995106</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>280732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264369</v>
+        <v>265386</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293722</v>
+        <v>293173</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8396841969848121</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7907439656472173</v>
+        <v>0.7937855445401885</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8785405399282972</v>
+        <v>0.8768959707599734</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -5879,19 +5879,19 @@
         <v>283427</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266258</v>
+        <v>265883</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>300376</v>
+        <v>299537</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7502804825309622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7048312263443017</v>
+        <v>0.7038363236620329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7951454455497592</v>
+        <v>0.7929258741376339</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>539</v>
@@ -5900,19 +5900,19 @@
         <v>564159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539643</v>
+        <v>542921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>584799</v>
+        <v>587217</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7922558785456217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7578281268621987</v>
+        <v>0.7624314682004892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8212408508157325</v>
+        <v>0.8246366482033428</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>67898</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55572</v>
+        <v>54511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80499</v>
+        <v>80816</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2641977721896462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.216234420536726</v>
+        <v>0.2121048447658986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3132272572216384</v>
+        <v>0.314461397685971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -6025,19 +6025,19 @@
         <v>161895</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>140390</v>
+        <v>141683</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>184418</v>
+        <v>185513</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4045675050920419</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3508265197683597</v>
+        <v>0.3540578640474382</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4608510547277376</v>
+        <v>0.4635858088575617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>200</v>
@@ -6046,19 +6046,19 @@
         <v>229794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>205223</v>
+        <v>203262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256274</v>
+        <v>255983</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3496731772594874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3122838645921008</v>
+        <v>0.3093006010632945</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3899674967173188</v>
+        <v>0.389525454082195</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>189100</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>176499</v>
+        <v>176182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>201426</v>
+        <v>202487</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7358022278103538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6867727427783616</v>
+        <v>0.685538602314029</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.783765579463274</v>
+        <v>0.7878951552341014</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>179</v>
@@ -6096,19 +6096,19 @@
         <v>238274</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>215751</v>
+        <v>214656</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>259779</v>
+        <v>258486</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5954324949079581</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5391489452722625</v>
+        <v>0.5364141911424383</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6491734802316403</v>
+        <v>0.645942135952562</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>403</v>
@@ -6117,19 +6117,19 @@
         <v>427373</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>400893</v>
+        <v>401184</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>451944</v>
+        <v>453905</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6503268227405126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6100325032826812</v>
+        <v>0.610474545917805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6877161354078991</v>
+        <v>0.6906993989367055</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>426095</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>387552</v>
+        <v>388093</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>467556</v>
+        <v>465822</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1255307575641389</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.114175577339665</v>
+        <v>0.1143349401157984</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1377453698558985</v>
+        <v>0.137234416393485</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>409</v>
@@ -6242,19 +6242,19 @@
         <v>467998</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>425638</v>
+        <v>429106</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>509095</v>
+        <v>513651</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1320333477715592</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1200827701813381</v>
+        <v>0.1210610439081573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1436277704509533</v>
+        <v>0.1449132054327391</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>814</v>
@@ -6263,19 +6263,19 @@
         <v>894093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>837203</v>
+        <v>837751</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>955488</v>
+        <v>957935</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1288524266369528</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1206536784878991</v>
+        <v>0.1207326474957449</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1377004009364672</v>
+        <v>0.1380529621694524</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2968255</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2926794</v>
+        <v>2928528</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3006798</v>
+        <v>3006257</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8744692424358611</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8622546301441015</v>
+        <v>0.862765583606515</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8858244226603349</v>
+        <v>0.8856650598842016</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2929</v>
@@ -6313,19 +6313,19 @@
         <v>3076544</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3035447</v>
+        <v>3030891</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3118904</v>
+        <v>3115436</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8679666522284408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8563722295490466</v>
+        <v>0.8550867945672616</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8799172298186618</v>
+        <v>0.8789389560918429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5755</v>
@@ -6334,19 +6334,19 @@
         <v>6044799</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5983404</v>
+        <v>5980957</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6101689</v>
+        <v>6101141</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8711475733630472</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.862299599063533</v>
+        <v>0.8619470378305477</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8793463215121009</v>
+        <v>0.879267352504255</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>26890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13239</v>
+        <v>12981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46571</v>
+        <v>48721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06594139909384174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03246404906802893</v>
+        <v>0.03183318803892064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1142024580614994</v>
+        <v>0.119474052354511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -6702,19 +6702,19 @@
         <v>17079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8605</v>
+        <v>9093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29189</v>
+        <v>28867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04711179481246548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0237375178353716</v>
+        <v>0.02508311941005243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08051922317750909</v>
+        <v>0.0796311136472722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -6723,19 +6723,19 @@
         <v>43969</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28146</v>
+        <v>26760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68643</v>
+        <v>66204</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05708003028217873</v>
+        <v>0.05708003028217872</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03653825354577581</v>
+        <v>0.03473916267635282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08911164916271104</v>
+        <v>0.08594457661369609</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>380903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>361222</v>
+        <v>359072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>394554</v>
+        <v>394812</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9340586009061584</v>
+        <v>0.9340586009061582</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8857975419385005</v>
+        <v>0.8805259476454891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9675359509319711</v>
+        <v>0.9681668119610793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -6773,19 +6773,19 @@
         <v>345433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333323</v>
+        <v>333645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353907</v>
+        <v>353419</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9528882051875345</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9194807768224909</v>
+        <v>0.9203688863527278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9762624821646284</v>
+        <v>0.9749168805899475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>357</v>
@@ -6794,19 +6794,19 @@
         <v>726336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>701662</v>
+        <v>704101</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742159</v>
+        <v>743545</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9429199697178214</v>
+        <v>0.9429199697178213</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9108883508372888</v>
+        <v>0.9140554233863035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.963461746454224</v>
+        <v>0.965260837323647</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>75783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57764</v>
+        <v>57301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98377</v>
+        <v>96354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1589112150216476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1211266642508379</v>
+        <v>0.1201565640628003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2062883728821099</v>
+        <v>0.2020474844608849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -6919,19 +6919,19 @@
         <v>44031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32755</v>
+        <v>32770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58327</v>
+        <v>59375</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0877585140139375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06528402229178513</v>
+        <v>0.06531404744651119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1162510127744479</v>
+        <v>0.1183403773798358</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -6940,19 +6940,19 @@
         <v>119815</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98134</v>
+        <v>96151</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144418</v>
+        <v>145935</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1224317588105628</v>
+        <v>0.1224317588105629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1002779783831665</v>
+        <v>0.09825113487519688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1475731352838672</v>
+        <v>0.1491231870470124</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>401107</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378513</v>
+        <v>380536</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>419126</v>
+        <v>419589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8410887849783523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7937116271178901</v>
+        <v>0.7979525155391149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8788733357491617</v>
+        <v>0.8798434359371997</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>419</v>
@@ -6990,19 +6990,19 @@
         <v>457702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>443406</v>
+        <v>442358</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>468978</v>
+        <v>468963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9122414859860625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8837489872255522</v>
+        <v>0.8816596226201642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9347159777082148</v>
+        <v>0.9346859525534887</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -7011,19 +7011,19 @@
         <v>858808</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>834205</v>
+        <v>832688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880489</v>
+        <v>882472</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8775682411894371</v>
+        <v>0.8775682411894372</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8524268647161326</v>
+        <v>0.8508768129529878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8997220216168332</v>
+        <v>0.9017488651248031</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>98670</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80133</v>
+        <v>80044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119183</v>
+        <v>116963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1589304737436135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1290719176046692</v>
+        <v>0.1289294263710907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1919712213620252</v>
+        <v>0.1883949784795795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7136,19 +7136,19 @@
         <v>35942</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27204</v>
+        <v>26907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47869</v>
+        <v>46621</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05767414041891857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04365220320714121</v>
+        <v>0.04317621475364915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0768127676098134</v>
+        <v>0.07481027142328316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -7157,19 +7157,19 @@
         <v>134612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112333</v>
+        <v>113524</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156438</v>
+        <v>158127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1082064330529214</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09029734834420032</v>
+        <v>0.09125541823045422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.125750944972164</v>
+        <v>0.127109120962832</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>522167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>501654</v>
+        <v>503874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540704</v>
+        <v>540793</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8410695262563864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8080287786379746</v>
+        <v>0.8116050215204204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8709280823953308</v>
+        <v>0.8710705736289094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>800</v>
@@ -7207,19 +7207,19 @@
         <v>587251</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575324</v>
+        <v>576572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595989</v>
+        <v>596286</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9423258595810813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9231872323901871</v>
+        <v>0.9251897285767169</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9563477967928588</v>
+        <v>0.9568237852463513</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -7228,19 +7228,19 @@
         <v>1109417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1087591</v>
+        <v>1085902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1131696</v>
+        <v>1130505</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8917935669470787</v>
+        <v>0.8917935669470786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8742490550278359</v>
+        <v>0.8728908790371683</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9097026516557997</v>
+        <v>0.9087445817695462</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>144754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122387</v>
+        <v>124767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168644</v>
+        <v>170016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2066086155526518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1746852057119062</v>
+        <v>0.1780817160772571</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2407083401120669</v>
+        <v>0.2426665935959901</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -7353,19 +7353,19 @@
         <v>54609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44139</v>
+        <v>43683</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66411</v>
+        <v>66176</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07410814172023276</v>
+        <v>0.07410814172023278</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05989985878776456</v>
+        <v>0.05928021452564756</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09012356633197581</v>
+        <v>0.08980546248843738</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -7374,19 +7374,19 @@
         <v>199363</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176669</v>
+        <v>174284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226328</v>
+        <v>226845</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1386868390003191</v>
+        <v>0.1386868390003192</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1229000926720839</v>
+        <v>0.1212406859796337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1574452440017363</v>
+        <v>0.1578048729853083</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>555863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>531973</v>
+        <v>530601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>578230</v>
+        <v>575850</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7933913844473481</v>
+        <v>0.7933913844473482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7592916598879328</v>
+        <v>0.7573334064040095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8253147942880935</v>
+        <v>0.8219182839227425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1055</v>
@@ -7424,19 +7424,19 @@
         <v>682277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>670475</v>
+        <v>670710</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>692747</v>
+        <v>693203</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9258918582797672</v>
+        <v>0.9258918582797673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9098764336680242</v>
+        <v>0.9101945375115628</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9401001412122354</v>
+        <v>0.9407197854743529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1584</v>
@@ -7445,19 +7445,19 @@
         <v>1238141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1211176</v>
+        <v>1210659</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1260835</v>
+        <v>1263220</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8613131609996807</v>
+        <v>0.8613131609996809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8425547559982638</v>
+        <v>0.8421951270146913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.877099907327916</v>
+        <v>0.8787593140203658</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>121036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103512</v>
+        <v>101871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141155</v>
+        <v>140633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1986324361702585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1698745094331926</v>
+        <v>0.1671815662736193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2316492075180158</v>
+        <v>0.2307934886967984</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -7570,19 +7570,19 @@
         <v>101959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89926</v>
+        <v>87732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>116573</v>
+        <v>116117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1674600442320827</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1476976725023311</v>
+        <v>0.1440931904476036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1914634014504624</v>
+        <v>0.1907140604494724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -7591,19 +7591,19 @@
         <v>222995</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>200424</v>
+        <v>198236</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>248953</v>
+        <v>247959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1830525228216197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.164524713237301</v>
+        <v>0.1627283603554597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2043609550100944</v>
+        <v>0.2035449762908893</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>488310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468191</v>
+        <v>468713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>505834</v>
+        <v>507475</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8013675638297414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7683507924819842</v>
+        <v>0.7692065113032015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8301254905668072</v>
+        <v>0.8328184337263809</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>833</v>
@@ -7641,19 +7641,19 @@
         <v>506896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>492282</v>
+        <v>492738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>518929</v>
+        <v>521123</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8325399557679172</v>
+        <v>0.8325399557679174</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8085365985495375</v>
+        <v>0.8092859395505279</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8523023274976689</v>
+        <v>0.8559068095523966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1365</v>
@@ -7662,19 +7662,19 @@
         <v>995207</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>969249</v>
+        <v>970243</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1017778</v>
+        <v>1019966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8169474771783803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7956390449899056</v>
+        <v>0.7964550237091103</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8354752867626986</v>
+        <v>0.8372716396445401</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>88099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75922</v>
+        <v>74428</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103858</v>
+        <v>102359</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2164176459026871</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1865036073721245</v>
+        <v>0.1828326219585559</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2551287324626684</v>
+        <v>0.2514462438134268</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>273</v>
@@ -7787,19 +7787,19 @@
         <v>143912</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>130561</v>
+        <v>129539</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>157522</v>
+        <v>158088</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3276930446156825</v>
+        <v>0.3276930446156824</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2972931395292122</v>
+        <v>0.294966891419122</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3586850595636063</v>
+        <v>0.3599737423323286</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>399</v>
@@ -7808,19 +7808,19 @@
         <v>232011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>212519</v>
+        <v>211039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>252396</v>
+        <v>253855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2741649172948203</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.25113147635164</v>
+        <v>0.2493823892144579</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2982538573099374</v>
+        <v>0.2999775950671497</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>318981</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>303222</v>
+        <v>304721</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331158</v>
+        <v>332652</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7835823540973129</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7448712675373316</v>
+        <v>0.7485537561865733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8134963926278759</v>
+        <v>0.8171673780414447</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>554</v>
@@ -7858,19 +7858,19 @@
         <v>295254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281644</v>
+        <v>281078</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>308605</v>
+        <v>309627</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6723069553843176</v>
+        <v>0.6723069553843175</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6413149404363939</v>
+        <v>0.6400262576676717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7027068604707879</v>
+        <v>0.7050331085808785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>998</v>
@@ -7879,19 +7879,19 @@
         <v>614235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>593850</v>
+        <v>592391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>633727</v>
+        <v>635207</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7258350827051796</v>
+        <v>0.7258350827051797</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7017461426900623</v>
+        <v>0.7000224049328501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.74886852364836</v>
+        <v>0.750617610785542</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>95744</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81983</v>
+        <v>81862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108635</v>
+        <v>110477</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3086549392336702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.26429252276753</v>
+        <v>0.2639019771534133</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3502104760198773</v>
+        <v>0.3561512334230283</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>499</v>
@@ -8004,19 +8004,19 @@
         <v>260002</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>242983</v>
+        <v>243723</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275200</v>
+        <v>274088</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5596145747125151</v>
+        <v>0.559614574712515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5229839075324605</v>
+        <v>0.5245767740723036</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5923258450371255</v>
+        <v>0.5899330733844983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>644</v>
@@ -8025,19 +8025,19 @@
         <v>355746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>333952</v>
+        <v>335521</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>376861</v>
+        <v>378633</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4591415093014021</v>
+        <v>0.459141509301402</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4310125883272852</v>
+        <v>0.4330376397517753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4863933723999618</v>
+        <v>0.4886808484271642</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>214454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201563</v>
+        <v>199721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228215</v>
+        <v>228336</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6913450607663297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6497895239801234</v>
+        <v>0.6438487665769718</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7357074772324705</v>
+        <v>0.7360980228465864</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>382</v>
@@ -8075,19 +8075,19 @@
         <v>204607</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>189409</v>
+        <v>190521</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>221626</v>
+        <v>220886</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.440385425287485</v>
+        <v>0.4403854252874849</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4076741549628745</v>
+        <v>0.4100669266155016</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4770160924675395</v>
+        <v>0.4754232259276964</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>695</v>
@@ -8096,19 +8096,19 @@
         <v>419061</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>397946</v>
+        <v>396174</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>440855</v>
+        <v>439286</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.540858490698598</v>
+        <v>0.5408584906985979</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5136066276000382</v>
+        <v>0.5113191515728356</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5689874116727147</v>
+        <v>0.5669623602482247</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>650977</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>603154</v>
+        <v>603645</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>702730</v>
+        <v>696490</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1842684426684743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1707315394594008</v>
+        <v>0.1708704782635676</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.19891789453748</v>
+        <v>0.1971518063532197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1128</v>
@@ -8221,19 +8221,19 @@
         <v>657534</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>619803</v>
+        <v>622143</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>696190</v>
+        <v>697485</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1759544836811777</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1658578430228926</v>
+        <v>0.166484069332754</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1862987730698107</v>
+        <v>0.1866452576155651</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1817</v>
@@ -8242,19 +8242,19 @@
         <v>1308510</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1245848</v>
+        <v>1247742</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1367892</v>
+        <v>1379589</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1799947016645022</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1713751265729525</v>
+        <v>0.1716355767070825</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1881630531840626</v>
+        <v>0.1897720647703083</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2881785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2830032</v>
+        <v>2836272</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2929608</v>
+        <v>2929117</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8157315573315258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.80108210546252</v>
+        <v>0.8028481936467803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8292684605405996</v>
+        <v>0.8291295217364325</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4239</v>
@@ -8292,19 +8292,19 @@
         <v>3079420</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3040764</v>
+        <v>3039469</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3117151</v>
+        <v>3114811</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8240455163188224</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8137012269301892</v>
+        <v>0.8133547423844349</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8341421569771073</v>
+        <v>0.8335159306672459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6926</v>
@@ -8313,19 +8313,19 @@
         <v>5961206</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5901824</v>
+        <v>5890127</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6023868</v>
+        <v>6021974</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8200052983354977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8118369468159373</v>
+        <v>0.8102279352296921</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8286248734270473</v>
+        <v>0.8283644232929176</v>
       </c>
     </row>
     <row r="27">
